--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_31.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_31.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998418133749717</v>
+        <v>0.9500823894625559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246173822604198</v>
+        <v>0.7421009941546033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8148153508429486</v>
+        <v>0.7525156648437293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999654282810259</v>
+        <v>0.9460365654882996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006584560497621343</v>
+        <v>0.1749867119604732</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172784372387272</v>
+        <v>1.724571839603897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6623947524118692</v>
+        <v>0.8852371168877302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001984562984736144</v>
+        <v>0.1614431696992179</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06300558822909641</v>
+        <v>1.499009238070202</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02566039847239583</v>
+        <v>0.4183141307205307</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010123944001812</v>
+        <v>0.9320270835234803</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02606452409734829</v>
+        <v>0.4249021601186609</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6512255639328</v>
+        <v>37.48609047919203</v>
       </c>
       <c r="O2" t="n">
-        <v>285.9863981071492</v>
+        <v>74.45067406741785</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998351024256343</v>
+        <v>0.9500646901082653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8243730175759378</v>
+        <v>0.7419164620479466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8147800550613429</v>
+        <v>0.7524919938042764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996661395586974</v>
+        <v>0.9463967855564549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006863905555398755</v>
+        <v>0.1750487572342309</v>
       </c>
       <c r="G3" t="n">
-        <v>1.174418440157599</v>
+        <v>1.725805806650803</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6625210033761062</v>
+        <v>0.8853217868233273</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001916500230645418</v>
+        <v>0.1603654942302916</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06677065867409797</v>
+        <v>1.498850128090306</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02619905638644025</v>
+        <v>0.4183882852497556</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010553444759402</v>
+        <v>0.9320029822750847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02661166533507854</v>
+        <v>0.4249774825075938</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5681275385936</v>
+        <v>37.48538146219384</v>
       </c>
       <c r="O3" t="n">
-        <v>285.90330008181</v>
+        <v>74.44996505041966</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998389930694906</v>
+        <v>0.9500424707332921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8242920238491387</v>
+        <v>0.7416635022022396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8147573687910703</v>
+        <v>0.7523455871191392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996846441586862</v>
+        <v>0.9470398839807399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006701956466202428</v>
+        <v>0.1751266474883222</v>
       </c>
       <c r="G4" t="n">
-        <v>1.174960045581646</v>
+        <v>1.727497350303818</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6626021508494457</v>
+        <v>0.885845475046916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001810275995129585</v>
+        <v>0.1584415275853845</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06424515677802578</v>
+        <v>1.498661662346534</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02588813717941565</v>
+        <v>0.418481358591183</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010304443552599</v>
+        <v>0.9319727261049083</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02629584946134848</v>
+        <v>0.4250720216611094</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6158817566498</v>
+        <v>37.48449173373975</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9510542998662</v>
+        <v>74.44907532196557</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998400736788278</v>
+        <v>0.9499989962961658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8240382225064873</v>
+        <v>0.7412937198004947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8151483461970688</v>
+        <v>0.7522517168465854</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997232264324702</v>
+        <v>0.9477664722507206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00066569758140585</v>
+        <v>0.1752790475877089</v>
       </c>
       <c r="G5" t="n">
-        <v>1.176657216328604</v>
+        <v>1.729970086926977</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6612036473383616</v>
+        <v>0.8861812435689296</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001588797414685807</v>
+        <v>0.1562677831891391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0620352959140627</v>
+        <v>1.498316897490669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02580111589458584</v>
+        <v>0.4186634060766583</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010235284555023</v>
+        <v>0.9319135268713747</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02620745767827197</v>
+        <v>0.4252569362125002</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6293501450471</v>
+        <v>37.48275203474356</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9645226882635</v>
+        <v>74.44733562296938</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999843166357877</v>
+        <v>0.9499214041251691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8238290587738992</v>
+        <v>0.7407293710842021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8146682095643473</v>
+        <v>0.752061613398598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997518168711128</v>
+        <v>0.9488637463039533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006528242222988167</v>
+        <v>0.1755510477642079</v>
       </c>
       <c r="G6" t="n">
-        <v>1.178055895171531</v>
+        <v>1.733743889391413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.662921068233685</v>
+        <v>0.8868612325795495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001424676196733308</v>
+        <v>0.1529850528962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06196494017836119</v>
+        <v>1.497772775113885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02555042509037407</v>
+        <v>0.4189881236553226</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010037353095875</v>
+        <v>0.9318078694470389</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02595281874449273</v>
+        <v>0.4255867677684299</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6684052995312</v>
+        <v>37.47965081583899</v>
       </c>
       <c r="O6" t="n">
-        <v>286.0035778427476</v>
+        <v>74.44423440406482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_3</t>
+          <t>model_1_31_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998464839427497</v>
+        <v>0.9498905204738012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8236390754102987</v>
+        <v>0.7405282216463018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8141963361198815</v>
+        <v>0.7519895051974244</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997808427936872</v>
+        <v>0.9492384743194584</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006390146866970025</v>
+        <v>0.1756593107308848</v>
       </c>
       <c r="G7" t="n">
-        <v>1.179326314798721</v>
+        <v>1.735088976608861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6646089321837445</v>
+        <v>0.887119159434074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001258055116705324</v>
+        <v>0.1518639737961456</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05643554085332757</v>
+        <v>1.497569508554601</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02527873981623693</v>
+        <v>0.4191172994889196</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009825027664021</v>
+        <v>0.9317658151132612</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02567685469887358</v>
+        <v>0.4257179779922777</v>
       </c>
       <c r="N7" t="n">
-        <v>144.711166239949</v>
+        <v>37.47841778876576</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0463387831654</v>
+        <v>74.44300137699159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_4</t>
+          <t>model_1_31_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998456297414968</v>
+        <v>0.9498604739158405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8236266007161392</v>
+        <v>0.7403430633135315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814291264310826</v>
+        <v>0.7518973437809706</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999776280138664</v>
+        <v>0.9496049252643294</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006425703222162582</v>
+        <v>0.1757646392577649</v>
       </c>
       <c r="G8" t="n">
-        <v>1.179409733136006</v>
+        <v>1.736327131232671</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6642693795489889</v>
+        <v>0.8874488154769032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001284246687560753</v>
+        <v>0.1507676573252875</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05853723154752792</v>
+        <v>1.497408408554427</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0253489708315004</v>
+        <v>0.4192429358471826</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009879696544203</v>
+        <v>0.9317249006513573</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02574819178242219</v>
+        <v>0.4258455929975931</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7000685925279</v>
+        <v>37.47721891168254</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0352411357443</v>
+        <v>74.44180249990836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_1</t>
+          <t>model_1_31_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998483912368945</v>
+        <v>0.9498449916840935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.823390184640696</v>
+        <v>0.7402532839092666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8142880432635444</v>
+        <v>0.7517283701690958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998246184936287</v>
+        <v>0.9499171926843839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006310755239004296</v>
+        <v>0.1758189123849844</v>
       </c>
       <c r="G9" t="n">
-        <v>1.18099064852109</v>
+        <v>1.736927486522387</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6642809010483479</v>
+        <v>0.8880532242889262</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00100676407213827</v>
+        <v>0.149833442471404</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04772165749553037</v>
+        <v>1.497369029183973</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02512121660868417</v>
+        <v>0.4193076583905718</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009702960838752</v>
+        <v>0.9317038184634465</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0255168506582673</v>
+        <v>0.4259113348563418</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7361700267222</v>
+        <v>37.47660144107111</v>
       </c>
       <c r="O9" t="n">
-        <v>286.0713425699386</v>
+        <v>74.44118502929693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_0</t>
+          <t>model_1_31_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998460234567029</v>
+        <v>0.9496106196098602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823380036883667</v>
+        <v>0.739847787908323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8144162897502503</v>
+        <v>0.7477136609045181</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998637104579001</v>
+        <v>0.9538823789367143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006409314721600605</v>
+        <v>0.1766405061713037</v>
       </c>
       <c r="G10" t="n">
-        <v>1.181058506619069</v>
+        <v>1.739639040147835</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6638221708015597</v>
+        <v>0.9024136065421025</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007823596525839365</v>
+        <v>0.1379707387199372</v>
       </c>
       <c r="J10" t="n">
-        <v>0.049040473490198</v>
+        <v>1.500162498423511</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0253166244227002</v>
+        <v>0.4202862193449884</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009854498771013</v>
+        <v>0.9313846735112989</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02571533595001793</v>
+        <v>0.4269053071675884</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7051760289305</v>
+        <v>37.46727730068878</v>
       </c>
       <c r="O10" t="n">
-        <v>286.0403485721469</v>
+        <v>74.4318608889146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_2</t>
+          <t>model_1_31_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998470356812127</v>
+        <v>0.9485136698854505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8233499919962403</v>
+        <v>0.7358319976841938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.814252844794467</v>
+        <v>0.7473709811454174</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998126515778938</v>
+        <v>0.9577255781170781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006367180606147813</v>
+        <v>0.1804858750379967</v>
       </c>
       <c r="G11" t="n">
-        <v>1.181259416919636</v>
+        <v>1.7664926478676</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6644068039313135</v>
+        <v>0.9036393521706917</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001075459233135758</v>
+        <v>0.1264729854157279</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04880808843208415</v>
+        <v>1.498133869028448</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02523327288749482</v>
+        <v>0.4248362920443552</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009789716402388</v>
+        <v>0.9298909547376347</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02563067171145403</v>
+        <v>0.4315270389635663</v>
       </c>
       <c r="N11" t="n">
-        <v>144.7183672107419</v>
+        <v>37.42420551781679</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0535397539583</v>
+        <v>74.38878910604261</v>
       </c>
     </row>
   </sheetData>
